--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spon2-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spon2-Itga4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.8164013333333333</v>
+      </c>
+      <c r="H2">
+        <v>2.449204</v>
+      </c>
+      <c r="I2">
+        <v>0.05618115571687973</v>
+      </c>
+      <c r="J2">
+        <v>0.05618115571687973</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.3355466666666667</v>
-      </c>
-      <c r="H2">
-        <v>1.00664</v>
-      </c>
-      <c r="I2">
-        <v>0.02388108083384315</v>
-      </c>
-      <c r="J2">
-        <v>0.02388108083384315</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N2">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O2">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P2">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q2">
-        <v>8.739371094755557</v>
+        <v>0.04872392010844444</v>
       </c>
       <c r="R2">
-        <v>78.65433985279999</v>
+        <v>0.438515280976</v>
       </c>
       <c r="S2">
-        <v>0.0219950417122995</v>
+        <v>0.001462253711081842</v>
       </c>
       <c r="T2">
-        <v>0.0219950417122995</v>
+        <v>0.001462253711081842</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3355466666666667</v>
+        <v>0.8164013333333333</v>
       </c>
       <c r="H3">
-        <v>1.00664</v>
+        <v>2.449204</v>
       </c>
       <c r="I3">
-        <v>0.02388108083384315</v>
+        <v>0.05618115571687973</v>
       </c>
       <c r="J3">
-        <v>0.02388108083384315</v>
+        <v>0.05618115571687973</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.990667</v>
       </c>
       <c r="O3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q3">
-        <v>0.1108050032088889</v>
+        <v>0.2695939532297777</v>
       </c>
       <c r="R3">
-        <v>0.99724502888</v>
+        <v>2.426345579068</v>
       </c>
       <c r="S3">
-        <v>0.0002788714017389096</v>
+        <v>0.008090784931057816</v>
       </c>
       <c r="T3">
-        <v>0.0002788714017389096</v>
+        <v>0.008090784931057816</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3355466666666667</v>
+        <v>0.8164013333333333</v>
       </c>
       <c r="H4">
-        <v>1.00664</v>
+        <v>2.449204</v>
       </c>
       <c r="I4">
-        <v>0.02388108083384315</v>
+        <v>0.05618115571687973</v>
       </c>
       <c r="J4">
-        <v>0.02388108083384315</v>
+        <v>0.05618115571687973</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>5.709327</v>
       </c>
       <c r="O4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q4">
-        <v>0.6385818812533333</v>
+        <v>1.553700725078667</v>
       </c>
       <c r="R4">
-        <v>5.74723693128</v>
+        <v>13.983306525708</v>
       </c>
       <c r="S4">
-        <v>0.001607167719804741</v>
+        <v>0.04662811707474007</v>
       </c>
       <c r="T4">
-        <v>0.001607167719804742</v>
+        <v>0.04662811707474007</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>38.635086</v>
       </c>
       <c r="I5">
-        <v>0.9165616424823987</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="J5">
-        <v>0.9165616424823989</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N5">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O5">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P5">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q5">
-        <v>335.4191705394134</v>
+        <v>0.7685978153093334</v>
       </c>
       <c r="R5">
-        <v>3018.77253485472</v>
+        <v>6.917380337784</v>
       </c>
       <c r="S5">
-        <v>0.8441750060878551</v>
+        <v>0.0230663913179409</v>
       </c>
       <c r="T5">
-        <v>0.8441750060878552</v>
+        <v>0.0230663913179409</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>38.635086</v>
       </c>
       <c r="I6">
-        <v>0.9165616424823987</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="J6">
-        <v>0.9165616424823989</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.990667</v>
       </c>
       <c r="O6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q6">
         <v>4.252722749151333</v>
@@ -818,10 +818,10 @@
         <v>38.274504742362</v>
       </c>
       <c r="S6">
-        <v>0.01070315166208707</v>
+        <v>0.1276284750551293</v>
       </c>
       <c r="T6">
-        <v>0.01070315166208707</v>
+        <v>0.1276284750551293</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>38.635086</v>
       </c>
       <c r="I7">
-        <v>0.9165616424823987</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="J7">
-        <v>0.9165616424823989</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>5.709327</v>
       </c>
       <c r="O7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q7">
         <v>24.508926627458</v>
@@ -880,10 +880,10 @@
         <v>220.580339647122</v>
       </c>
       <c r="S7">
-        <v>0.06168348473245658</v>
+        <v>0.7355374698067826</v>
       </c>
       <c r="T7">
-        <v>0.06168348473245659</v>
+        <v>0.7355374698067827</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8368233333333333</v>
+        <v>0.8368233333333334</v>
       </c>
       <c r="H8">
         <v>2.51047</v>
       </c>
       <c r="I8">
-        <v>0.05955727668375805</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="J8">
-        <v>0.05955727668375806</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N8">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O8">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P8">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q8">
-        <v>21.79520876604444</v>
+        <v>0.04994273229777778</v>
       </c>
       <c r="R8">
-        <v>196.1568788944</v>
+        <v>0.44948459068</v>
       </c>
       <c r="S8">
-        <v>0.05485366403826245</v>
+        <v>0.001498831487315729</v>
       </c>
       <c r="T8">
-        <v>0.05485366403826246</v>
+        <v>0.001498831487315729</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8368233333333333</v>
+        <v>0.8368233333333334</v>
       </c>
       <c r="H9">
         <v>2.51047</v>
       </c>
       <c r="I9">
-        <v>0.05955727668375805</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="J9">
-        <v>0.05955727668375806</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>0.990667</v>
       </c>
       <c r="O9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q9">
         <v>0.2763377537211111</v>
@@ -1004,10 +1004,10 @@
         <v>2.48703978349</v>
       </c>
       <c r="S9">
-        <v>0.0006954802987398477</v>
+        <v>0.008293173147631932</v>
       </c>
       <c r="T9">
-        <v>0.0006954802987398479</v>
+        <v>0.008293173147631932</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8368233333333333</v>
+        <v>0.8368233333333334</v>
       </c>
       <c r="H10">
         <v>2.51047</v>
       </c>
       <c r="I10">
-        <v>0.05955727668375805</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="J10">
-        <v>0.05955727668375806</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>5.709327</v>
       </c>
       <c r="O10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q10">
-        <v>1.592566017076666</v>
+        <v>1.592566017076667</v>
       </c>
       <c r="R10">
         <v>14.33309415369</v>
       </c>
       <c r="S10">
-        <v>0.00400813234675575</v>
+        <v>0.04779450346831979</v>
       </c>
       <c r="T10">
-        <v>0.004008132346755751</v>
+        <v>0.0477945034683198</v>
       </c>
     </row>
   </sheetData>
